--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T15:05:54+00:00</t>
+    <t>2026-01-05T15:47:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
   <si>
     <t>Property</t>
   </si>
@@ -37,15 +37,12 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Title</t>
+  </si>
+  <si>
     <t>Mapping Métier/CDA/FHIR : "Référence Item Plan Traitement"</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Mapping FRLMReferenceItemPlanTraitement → FRCDAReferenceItemPlanTraitement → FRCarePlanDocument</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -58,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:47:03+00:00</t>
+    <t>2026-01-07T15:20:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -136,7 +133,7 @@
     <t>FRLMReferenceItemPlanTraitement.produitSante</t>
   </si>
   <si>
-    <t>FRCDAReferenceItemPlanTraitement.frProduitSante</t>
+    <t>FRCDAReferenceItemPlanTraitement.consumable</t>
   </si>
   <si>
     <t>FRLMReferenceItemPlanTraitement.auteur</t>
@@ -148,7 +145,7 @@
     <t>FRLMReferenceItemPlanTraitement.traitementPrescrit</t>
   </si>
   <si>
-    <t>FRCDAReferenceItemPlanTraitement.entryRelationship.frItemPlanTraitement</t>
+    <t>FRCDAReferenceItemPlanTraitement.entryRelationship:frItemPlanTraitement</t>
   </si>
   <si>
     <t>FRLMReferenceItemPlanTraitement.reference</t>
@@ -181,10 +178,10 @@
     <t>FRCarePlanDocument.author</t>
   </si>
   <si>
-    <t>FRCarePlanDocument.activity.reference[FRMedicationRequestDocument]</t>
-  </si>
-  <si>
-    <t>FRCarePlanDocument.activity.reference[FRMedicationRequestDocument].identifier</t>
+    <t>FRCarePlanDocument.activity.reference:FRMedicationRequestDocument</t>
+  </si>
+  <si>
+    <t>FRCarePlanDocument.activity.reference:FRMedicationRequestDocument.identifier</t>
   </si>
 </sst>
 </file>
@@ -356,81 +353,79 @@
       <c r="A4" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
-        <v>7</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>8</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>10</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>15</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
@@ -449,139 +444,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="C2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -600,139 +595,139 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>25</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="C1" t="s" s="1">
         <v>26</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="D1" t="s" s="1">
         <v>27</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>28</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T15:20:53+00:00</t>
+    <t>2026-01-07T21:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:00:10+00:00</t>
+    <t>2026-01-14T15:34:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T15:34:52+00:00</t>
+    <t>2026-01-16T14:41:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
+++ b/mappingCorps/ig/FRCarePlanLMCDAFHIR.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-16T14:41:46+00:00</t>
+    <t>2026-01-16T14:59:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
